--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H2">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I2">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J2">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N2">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O2">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P2">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q2">
-        <v>84.97941490575796</v>
+        <v>140.3599739916997</v>
       </c>
       <c r="R2">
-        <v>84.97941490575796</v>
+        <v>1263.239765925298</v>
       </c>
       <c r="S2">
-        <v>0.002914633212901374</v>
+        <v>0.004373778240187169</v>
       </c>
       <c r="T2">
-        <v>0.002914633212901374</v>
+        <v>0.004373778240187169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H3">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I3">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J3">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N3">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O3">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P3">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q3">
-        <v>2319.759066078127</v>
+        <v>2369.163870689642</v>
       </c>
       <c r="R3">
-        <v>2319.759066078127</v>
+        <v>21322.47483620678</v>
       </c>
       <c r="S3">
-        <v>0.07956334869354649</v>
+        <v>0.07382587136752204</v>
       </c>
       <c r="T3">
-        <v>0.07956334869354649</v>
+        <v>0.07382587136752203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H4">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I4">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J4">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N4">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O4">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P4">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q4">
-        <v>1201.027224026001</v>
+        <v>1304.145779368102</v>
       </c>
       <c r="R4">
-        <v>1201.027224026001</v>
+        <v>11737.31201431292</v>
       </c>
       <c r="S4">
-        <v>0.04119296232654734</v>
+        <v>0.04063868259315475</v>
       </c>
       <c r="T4">
-        <v>0.04119296232654734</v>
+        <v>0.04063868259315474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H5">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I5">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J5">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N5">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O5">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P5">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q5">
-        <v>618.7140419607358</v>
+        <v>691.0216810521578</v>
       </c>
       <c r="R5">
-        <v>618.7140419607358</v>
+        <v>6219.19512946942</v>
       </c>
       <c r="S5">
-        <v>0.02122072148869346</v>
+        <v>0.02153303043688377</v>
       </c>
       <c r="T5">
-        <v>0.02122072148869346</v>
+        <v>0.02153303043688377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H6">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I6">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J6">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N6">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O6">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P6">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q6">
-        <v>379.952083086489</v>
+        <v>623.9866744163265</v>
       </c>
       <c r="R6">
-        <v>379.952083086489</v>
+        <v>5615.88006974694</v>
       </c>
       <c r="S6">
-        <v>0.01303163786080513</v>
+        <v>0.01944414252235667</v>
       </c>
       <c r="T6">
-        <v>0.01303163786080513</v>
+        <v>0.01944414252235667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H7">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I7">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J7">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N7">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O7">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P7">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q7">
-        <v>10371.8917151009</v>
+        <v>10532.39497541061</v>
       </c>
       <c r="R7">
-        <v>10371.8917151009</v>
+        <v>94791.55477869546</v>
       </c>
       <c r="S7">
-        <v>0.355736269859883</v>
+        <v>0.3282015424371035</v>
       </c>
       <c r="T7">
-        <v>0.355736269859883</v>
+        <v>0.3282015424371035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H8">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I8">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J8">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N8">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O8">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P8">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q8">
-        <v>5369.921599464233</v>
+        <v>5797.732534989734</v>
       </c>
       <c r="R8">
-        <v>5369.921599464233</v>
+        <v>52179.5928149076</v>
       </c>
       <c r="S8">
-        <v>0.1841781549311942</v>
+        <v>0.1806640146959763</v>
       </c>
       <c r="T8">
-        <v>0.1841781549311942</v>
+        <v>0.1806640146959763</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H9">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I9">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J9">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N9">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O9">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P9">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q9">
-        <v>2766.336875095553</v>
+        <v>3072.017673178067</v>
       </c>
       <c r="R9">
-        <v>2766.336875095553</v>
+        <v>27648.1590586026</v>
       </c>
       <c r="S9">
-        <v>0.09488012294705719</v>
+        <v>0.09572760431838785</v>
       </c>
       <c r="T9">
-        <v>0.09488012294705719</v>
+        <v>0.09572760431838788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H10">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I10">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J10">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N10">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O10">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P10">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q10">
-        <v>107.5263399047622</v>
+        <v>188.0691878851209</v>
       </c>
       <c r="R10">
-        <v>107.5263399047622</v>
+        <v>1692.622690966088</v>
       </c>
       <c r="S10">
-        <v>0.003687950098217341</v>
+        <v>0.005860452223154852</v>
       </c>
       <c r="T10">
-        <v>0.003687950098217341</v>
+        <v>0.005860452223154853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H11">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I11">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J11">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N11">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O11">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P11">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q11">
-        <v>2935.242636265424</v>
+        <v>3174.457165072711</v>
       </c>
       <c r="R11">
-        <v>2935.242636265424</v>
+        <v>28570.1144856544</v>
       </c>
       <c r="S11">
-        <v>0.1006732711100806</v>
+        <v>0.09891973671797864</v>
       </c>
       <c r="T11">
-        <v>0.1006732711100806</v>
+        <v>0.09891973671797864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H12">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I12">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J12">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N12">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O12">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P12">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q12">
-        <v>1519.686404863002</v>
+        <v>1747.432908644392</v>
       </c>
       <c r="R12">
-        <v>1519.686404863002</v>
+        <v>15726.89617779952</v>
       </c>
       <c r="S12">
-        <v>0.05212236956115208</v>
+        <v>0.05445201943730608</v>
       </c>
       <c r="T12">
-        <v>0.05212236956115208</v>
+        <v>0.05445201943730608</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H13">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I13">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J13">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N13">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O13">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P13">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q13">
-        <v>782.8726104256998</v>
+        <v>925.9041781681691</v>
       </c>
       <c r="R13">
-        <v>782.8726104256998</v>
+        <v>8333.137603513522</v>
       </c>
       <c r="S13">
-        <v>0.02685104992012526</v>
+        <v>0.02885223922319764</v>
       </c>
       <c r="T13">
-        <v>0.02685104992012526</v>
+        <v>0.02885223922319765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H14">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I14">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J14">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.89351831394003</v>
+        <v>6.360972666666666</v>
       </c>
       <c r="N14">
-        <v>3.89351831394003</v>
+        <v>19.082918</v>
       </c>
       <c r="O14">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643261</v>
       </c>
       <c r="P14">
-        <v>0.0201159479973118</v>
+        <v>0.03115862208643262</v>
       </c>
       <c r="Q14">
-        <v>14.04528830065938</v>
+        <v>47.50303144572799</v>
       </c>
       <c r="R14">
-        <v>14.04528830065938</v>
+        <v>427.527283011552</v>
       </c>
       <c r="S14">
-        <v>0.0004817268253879586</v>
+        <v>0.001480249100733934</v>
       </c>
       <c r="T14">
-        <v>0.0004817268253879586</v>
+        <v>0.001480249100733934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H15">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I15">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J15">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>106.284850486675</v>
+        <v>107.3681206666667</v>
       </c>
       <c r="N15">
-        <v>106.284850486675</v>
+        <v>322.104362</v>
       </c>
       <c r="O15">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="P15">
-        <v>0.5491230175127785</v>
+        <v>0.5259325690101214</v>
       </c>
       <c r="Q15">
-        <v>383.4067921892459</v>
+        <v>801.813099909152</v>
       </c>
       <c r="R15">
-        <v>383.4067921892459</v>
+        <v>7216.317899182369</v>
       </c>
       <c r="S15">
-        <v>0.01315012784926851</v>
+        <v>0.02498541848751735</v>
       </c>
       <c r="T15">
-        <v>0.01315012784926851</v>
+        <v>0.02498541848751735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H16">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I16">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J16">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.027696971928</v>
+        <v>59.10257333333334</v>
       </c>
       <c r="N16">
-        <v>55.027696971928</v>
+        <v>177.30772</v>
       </c>
       <c r="O16">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="P16">
-        <v>0.2843018066040579</v>
+        <v>0.2895083571855736</v>
       </c>
       <c r="Q16">
-        <v>198.5042334910549</v>
+        <v>441.37139816512</v>
       </c>
       <c r="R16">
-        <v>198.5042334910549</v>
+        <v>3972.34258348608</v>
       </c>
       <c r="S16">
-        <v>0.006808319785164302</v>
+        <v>0.0137536404591365</v>
       </c>
       <c r="T16">
-        <v>0.006808319785164302</v>
+        <v>0.0137536404591365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H17">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I17">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J17">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.3477411104505</v>
+        <v>31.31640666666667</v>
       </c>
       <c r="N17">
-        <v>28.3477411104505</v>
+        <v>93.94922000000001</v>
       </c>
       <c r="O17">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178723</v>
       </c>
       <c r="P17">
-        <v>0.1464592278858518</v>
+        <v>0.1534004517178724</v>
       </c>
       <c r="Q17">
-        <v>102.2602603776693</v>
+        <v>233.86741754912</v>
       </c>
       <c r="R17">
-        <v>102.2602603776693</v>
+        <v>2104.80675794208</v>
       </c>
       <c r="S17">
-        <v>0.003507333529975885</v>
+        <v>0.007287577739403089</v>
       </c>
       <c r="T17">
-        <v>0.003507333529975885</v>
+        <v>0.007287577739403092</v>
       </c>
     </row>
   </sheetData>
